--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12626e5773500992/ドキュメント/開発/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="6_{4A7942CD-BB7B-433C-BC8B-D516A86E7B03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2E30827B-BF86-4477-A531-D5197D4D750C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7FBD6-F82B-4E8D-A091-D254E7784BCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5916" yWindow="672" windowWidth="16656" windowHeight="11004" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10536" yWindow="324" windowWidth="11688" windowHeight="11004" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="3-1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>\django_app\urls.py</t>
     <phoneticPr fontId="1"/>
@@ -230,10 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{{gamecnt[0]}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;/td&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,12 +243,110 @@
     <t>{% endfor %}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>→2次元配列</t>
+    <rPh sb="2" eb="4">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{{gamecnt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{{gamecnt.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{% for cnt in ""|rjust:"2" %}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if 1 → 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>else → 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if 2 → 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>else → 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +387,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,12 +405,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -317,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,7 +524,37 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5026,6 +5238,238 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>99923</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フリーフォーム: 図形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C307D32-5BFB-4AC0-B8BC-417E272D7F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9396323" y="9075420"/>
+          <a:ext cx="151537" cy="426720"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 151537 w 151537"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 426720"/>
+            <a:gd name="connsiteX1" fmla="*/ 6757 w 151537"/>
+            <a:gd name="connsiteY1" fmla="*/ 213360 h 426720"/>
+            <a:gd name="connsiteX2" fmla="*/ 37237 w 151537"/>
+            <a:gd name="connsiteY2" fmla="*/ 426720 h 426720"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="151537" h="426720">
+              <a:moveTo>
+                <a:pt x="151537" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="88672" y="71120"/>
+                <a:pt x="25807" y="142240"/>
+                <a:pt x="6757" y="213360"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-12293" y="284480"/>
+                <a:pt x="12472" y="355600"/>
+                <a:pt x="37237" y="426720"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783A7A5E-A474-4ECF-BF37-9FA5E186BB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11361420" y="7802880"/>
+          <a:ext cx="3893820" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D3EC1C-569B-467F-90C2-94DEA306ACD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9296400" y="10393680"/>
+          <a:ext cx="3337560" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -8940,15 +9384,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A764F36D-FECD-4D24-BA23-1EAC418B4F8B}">
-  <dimension ref="A1:BI70"/>
+  <dimension ref="A1:BV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G27" workbookViewId="0">
-      <selection activeCell="BH48" sqref="BH48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y10" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="1"/>
+    <col min="1" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -8965,144 +9409,402 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB23" s="1"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="U31" s="2"/>
+      <c r="U31" s="9"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="2"/>
+      <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="V34" s="3"/>
+    <row r="34" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="V34" s="9"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="AM37" s="2"/>
+    <row r="37" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="AM37" s="9"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BH42" t="s">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BI42" t="s">
+      <c r="BI42" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="11"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="11"/>
+      <c r="BR42" s="11"/>
+      <c r="BS42" s="11"/>
+      <c r="BT42" s="11"/>
+      <c r="BU42" s="11"/>
+      <c r="BV42" s="12"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BH43" t="s">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG43" s="13"/>
+      <c r="BH43" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="14"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="14"/>
+      <c r="BM43" s="14"/>
+      <c r="BN43" s="14"/>
+      <c r="BO43" s="14"/>
+      <c r="BP43" s="14"/>
+      <c r="BQ43" s="14"/>
+      <c r="BR43" s="14"/>
+      <c r="BS43" s="14"/>
+      <c r="BT43" s="14"/>
+      <c r="BU43" s="14"/>
+      <c r="BV43" s="15"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BI44" t="s">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG44" s="13"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ44" s="14"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
+      <c r="BM44" s="14"/>
+      <c r="BN44" s="14"/>
+      <c r="BO44" s="14"/>
+      <c r="BP44" s="14"/>
+      <c r="BQ44" s="14"/>
+      <c r="BR44" s="14"/>
+      <c r="BS44" s="14"/>
+      <c r="BT44" s="14"/>
+      <c r="BU44" s="14"/>
+      <c r="BV44" s="15"/>
+    </row>
+    <row r="45" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG45" s="13"/>
+      <c r="BH45" s="14"/>
+      <c r="BI45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ45" s="14"/>
+      <c r="BK45" s="14"/>
+      <c r="BL45" s="14"/>
+      <c r="BM45" s="14"/>
+      <c r="BN45" s="14"/>
+      <c r="BO45" s="14"/>
+      <c r="BP45" s="14"/>
+      <c r="BQ45" s="14"/>
+      <c r="BR45" s="14"/>
+      <c r="BS45" s="14"/>
+      <c r="BT45" s="14"/>
+      <c r="BU45" s="14"/>
+      <c r="BV45" s="15"/>
+    </row>
+    <row r="46" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ46" s="14"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
+      <c r="BM46" s="14"/>
+      <c r="BN46" s="14"/>
+      <c r="BO46" s="14"/>
+      <c r="BP46" s="14"/>
+      <c r="BQ46" s="14"/>
+      <c r="BR46" s="14"/>
+      <c r="BS46" s="14"/>
+      <c r="BT46" s="14"/>
+      <c r="BU46" s="14"/>
+      <c r="BV46" s="15"/>
+    </row>
+    <row r="47" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="14"/>
+      <c r="BM47" s="14"/>
+      <c r="BN47" s="14"/>
+      <c r="BO47" s="14"/>
+      <c r="BP47" s="14"/>
+      <c r="BQ47" s="14"/>
+      <c r="BR47" s="14"/>
+      <c r="BS47" s="14"/>
+      <c r="BT47" s="14"/>
+      <c r="BU47" s="14"/>
+      <c r="BV47" s="15"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BI45" t="s">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BG48" s="13"/>
+      <c r="BH48" s="14"/>
+      <c r="BI48" s="14"/>
+      <c r="BJ48" s="14"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="14"/>
+      <c r="BM48" s="14"/>
+      <c r="BN48" s="14"/>
+      <c r="BO48" s="14"/>
+      <c r="BP48" s="14"/>
+      <c r="BQ48" s="14"/>
+      <c r="BR48" s="14"/>
+      <c r="BS48" s="14"/>
+      <c r="BT48" s="14"/>
+      <c r="BU48" s="14"/>
+      <c r="BV48" s="15"/>
+    </row>
+    <row r="49" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="BG49" s="13"/>
+      <c r="BH49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ49" s="14"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BN49" s="14"/>
+      <c r="BO49" s="14"/>
+      <c r="BP49" s="14"/>
+      <c r="BQ49" s="14"/>
+      <c r="BR49" s="14"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="14"/>
+      <c r="BU49" s="14"/>
+      <c r="BV49" s="15"/>
+    </row>
+    <row r="50" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="BG50" s="13"/>
+      <c r="BH50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI50" s="14"/>
+      <c r="BJ50" s="14"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="14"/>
+      <c r="BN50" s="14"/>
+      <c r="BO50" s="14"/>
+      <c r="BP50" s="14"/>
+      <c r="BQ50" s="14"/>
+      <c r="BR50" s="14"/>
+      <c r="BS50" s="14"/>
+      <c r="BT50" s="14"/>
+      <c r="BU50" s="14"/>
+      <c r="BV50" s="15"/>
+    </row>
+    <row r="51" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="BG51" s="13"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ51" s="14"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="14"/>
+      <c r="BP51" s="14"/>
+      <c r="BQ51" s="14"/>
+      <c r="BR51" s="14"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="14"/>
+      <c r="BU51" s="14"/>
+      <c r="BV51" s="15"/>
+    </row>
+    <row r="52" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ52" s="14"/>
+      <c r="BK52" s="14"/>
+      <c r="BL52" s="14"/>
+      <c r="BM52" s="14"/>
+      <c r="BN52" s="14"/>
+      <c r="BO52" s="14"/>
+      <c r="BP52" s="14"/>
+      <c r="BQ52" s="14"/>
+      <c r="BR52" s="14"/>
+      <c r="BS52" s="14"/>
+      <c r="BT52" s="14"/>
+      <c r="BU52" s="14"/>
+      <c r="BV52" s="15"/>
+    </row>
+    <row r="53" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="BG53" s="13"/>
+      <c r="BH53" s="14"/>
+      <c r="BI53" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="BJ53" s="14"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="14"/>
+      <c r="BM53" s="14"/>
+      <c r="BN53" s="14"/>
+      <c r="BO53" s="14"/>
+      <c r="BP53" s="14"/>
+      <c r="BQ53" s="14"/>
+      <c r="BR53" s="14"/>
+      <c r="BS53" s="14"/>
+      <c r="BT53" s="14"/>
+      <c r="BU53" s="14"/>
+      <c r="BV53" s="15"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BI46" t="s">
-        <v>43</v>
+    <row r="54" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG54" s="16"/>
+      <c r="BH54" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI54" s="17"/>
+      <c r="BJ54" s="17"/>
+      <c r="BK54" s="17"/>
+      <c r="BL54" s="17"/>
+      <c r="BM54" s="17"/>
+      <c r="BN54" s="17"/>
+      <c r="BO54" s="17"/>
+      <c r="BP54" s="17"/>
+      <c r="BQ54" s="17"/>
+      <c r="BR54" s="17"/>
+      <c r="BS54" s="17"/>
+      <c r="BT54" s="17"/>
+      <c r="BU54" s="17"/>
+      <c r="BV54" s="18"/>
+    </row>
+    <row r="56" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL56" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="BH47" t="s">
+    <row r="57" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="J57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH58" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="K59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="K60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="9:74" x14ac:dyDescent="0.2">
+      <c r="AK64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC64" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="I56" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="J57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="K59" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="K60" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="AJ63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="AK64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AK65" t="s">
+    <row r="65" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AK65" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AL66" t="s">
+    <row r="66" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AL66" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AM67" t="s">
+    <row r="67" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AM67" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AN68" t="s">
+    <row r="68" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AN68" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AM69" t="s">
+    <row r="69" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AM69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="37:40" x14ac:dyDescent="0.2">
-      <c r="AM70" t="s">
+    <row r="70" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="AM70" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="BD73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="BF74" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="BD76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="37:58" x14ac:dyDescent="0.2">
+      <c r="BF77" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B7FBD6-F82B-4E8D-A091-D254E7784BCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D6057-F0DA-432C-8FE1-2690141E6006}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10536" yWindow="324" windowWidth="11688" windowHeight="11004" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2-3フォーム（後半） (2)" sheetId="8" r:id="rId6"/>
     <sheet name="2-3フォーム（後半2）" sheetId="6" r:id="rId7"/>
     <sheet name="3-1" sheetId="7" r:id="rId8"/>
+    <sheet name="Import" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -346,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +394,15 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -494,12 +504,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,8 +570,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8838,6 +8855,865 @@
         <a:xfrm>
           <a:off x="121920" y="9944100"/>
           <a:ext cx="14272260" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5EC47F-56E9-4487-B19A-5528DFF67D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="312420" y="579120"/>
+          <a:ext cx="5859780" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556604</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494563EB-BD06-4989-B5CB-FAEB5603A53B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228599" y="7063738"/>
+          <a:ext cx="3985605" cy="3345470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B51BC9-D102-46FD-AB95-D053B374613D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6995160" y="0"/>
+          <a:ext cx="2827020" cy="6880860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152649</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87833FA-32D2-419F-BD5F-E23E09952D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4594860" y="7719060"/>
+          <a:ext cx="2872989" cy="4320914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F3C1A2-6EB3-4B17-BE34-3219788FFD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7924800" y="7511143"/>
+          <a:ext cx="3512820" cy="1731917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B331146-639A-4887-BBD4-E13872DE02C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11582400" y="7835153"/>
+          <a:ext cx="3543300" cy="6957956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>564775</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>143432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>328555</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>166292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC29C668-A984-4059-A284-ED448B808D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11537575" y="14621432"/>
+          <a:ext cx="5859780" cy="5643731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C6521-F10D-4C48-B8BC-9A3E0FD434AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15849600" y="7835153"/>
+          <a:ext cx="4335780" cy="2732891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37A00A8-97F1-4175-AA79-4B7B0C9006C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20726400" y="7835153"/>
+          <a:ext cx="5433060" cy="7052086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1107EA-3468-4162-BBB5-0D63E1038687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26822400" y="7835153"/>
+          <a:ext cx="5036820" cy="3986156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE64D4C-5EE1-4CD2-8729-BCBE1616D2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32308800" y="7835153"/>
+          <a:ext cx="5722620" cy="6617298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>98609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBC9E98-CAAE-4896-946D-777C8EC32140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32308800" y="14406280"/>
+          <a:ext cx="6393180" cy="6772387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>29136</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECFB9F6-47D4-406A-B677-A337749CDA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="32299836" y="21138776"/>
+          <a:ext cx="4305300" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5828</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D0A92C-F047-48B8-AD3B-E0F54764B80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="89648" y="13115365"/>
+          <a:ext cx="4183380" cy="2948940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9386,7 +10262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A764F36D-FECD-4D24-BA23-1EAC418B4F8B}">
   <dimension ref="A1:BV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Y10" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -9962,8 +10838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10019,4 +10895,27 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61B63-4280-4EAE-83A7-3E7E7CD27935}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41:J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="str">
+        <f>HYPERLINK(".\html\Python + Django でCSVのダウンロード／アップロード - Qiita.html", "CSVインポート")</f>
+        <v>CSVインポート</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D6057-F0DA-432C-8FE1-2690141E6006}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3940DFED-C363-4FD4-B39E-BF4B97B36111}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2-3フォーム（後半2）" sheetId="6" r:id="rId7"/>
     <sheet name="3-1" sheetId="7" r:id="rId8"/>
     <sheet name="Import" sheetId="10" r:id="rId9"/>
+    <sheet name="pythonanywhere" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>\django_app\urls.py</t>
     <phoneticPr fontId="1"/>
@@ -342,6 +343,47 @@
     <t>else → 2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://tutorial.djangogirls.org/ja/deploy/</t>
+  </si>
+  <si>
+    <t>django girls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pythonanywhere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.pythonanywhere.com</t>
+  </si>
+  <si>
+    <t>githubの内容をpythonanywhereへ反映する方法</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lsなどを使用して、manage.pyのあるフォルダへ移動</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1172,6 +1214,806 @@
               </a:solidFill>
             </a:rPr>
             <a:t>という意味　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055F3A05-4D00-4FA6-96FF-5A75EF8C23C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="175260" y="1844040"/>
+          <a:ext cx="6926580" cy="3909060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77109C45-E8E2-4746-AC7B-FF9419B48E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2910840"/>
+          <a:ext cx="746760" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DCF334-BAC3-4470-A69F-E87C222FEBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213360" y="5417820"/>
+          <a:ext cx="1280160" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC780FE-A8C5-48E2-AB10-FA566F838E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="175260" y="6705600"/>
+          <a:ext cx="5707380" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE03719A-F4CB-490A-BA10-3F6B4AA3939F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4282440" y="6690360"/>
+          <a:ext cx="1592580" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B67B30D-E09E-44C9-81B0-8BC5F94D3298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="175260" y="9387840"/>
+          <a:ext cx="5516880" cy="3710940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E029D881-41F3-4AB1-B393-C3AF5E19CD3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5204460" y="9471660"/>
+          <a:ext cx="601980" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A153C843-E52B-4ADB-B24A-80E9A8D8D5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859780" y="9357360"/>
+          <a:ext cx="381000" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79873E16-B2B0-4DAF-A4EA-A091128A5A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722120" y="9936480"/>
+          <a:ext cx="2781300" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41372053-05C2-46C8-8DF1-79156202B772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556760" y="9913620"/>
+          <a:ext cx="381000" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDD7AB0-B105-4541-8B05-D49D2F854D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="10698480"/>
+          <a:ext cx="2415540" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E941BDE-9B0D-411D-B527-C3599DB5A95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="10622280"/>
+          <a:ext cx="381000" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10063,6 +10905,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98AEC3-2209-41C1-A823-9BDCBA797413}">
+  <dimension ref="A2:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2A7D456E-4D94-4CD7-8B01-B884C45ED201}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.pythonanywhere.com/" xr:uid="{18B5E727-478B-40EA-9A9A-9DA09A0740F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10901,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61B63-4280-4EAE-83A7-3E7E7CD27935}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41:J42"/>
+    <sheetView topLeftCell="H46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC94" sqref="AC94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3940DFED-C363-4FD4-B39E-BF4B97B36111}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420F6E-F639-488B-84B1-7FD85054CA4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="3-1" sheetId="7" r:id="rId8"/>
     <sheet name="Import" sheetId="10" r:id="rId9"/>
     <sheet name="pythonanywhere" sheetId="11" r:id="rId10"/>
+    <sheet name="開始" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>\django_app\urls.py</t>
     <phoneticPr fontId="1"/>
@@ -384,6 +385,32 @@
     <t>git pull origin master</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Password:Roder5791federer_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するモデルクラスを指定すれば、そのクラスが管理ツールで編集できる(p156参照)</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://mmtomitomimm.blogspot.com/2019/01/django-girls.html</t>
+  </si>
 </sst>
 </file>
 
@@ -2023,6 +2050,1042 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>616</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>696</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F404F21-A358-4701-A07D-EB2D54653D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="670560" y="103174800"/>
+          <a:ext cx="4823460" cy="13388340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B26B2E-0193-4FFA-9DC5-DF61EC32ECF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="167640"/>
+          <a:ext cx="5097780" cy="13174980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241FD013-7D6D-43D1-8BF5-3384538B6940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="594"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="335280" y="11772900"/>
+          <a:ext cx="5433060" cy="12763500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C53F9EE-8830-49CB-A33E-9B3F773A0EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="23934420"/>
+          <a:ext cx="4884420" cy="12260580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7951ED-B3E1-4AB8-864B-17011A5CD36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="35402520"/>
+          <a:ext cx="5280660" cy="12534900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BC846E-3CDB-47A5-B1CB-CE6A6B9A036A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="670560" y="46817280"/>
+          <a:ext cx="5067300" cy="11559540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24675200-C20C-477F-B8D1-CB48AF1B85BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="733"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="640080" y="58140600"/>
+          <a:ext cx="5097780" cy="13411200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96494CA3-6257-4D92-8BA0-4EA76C1350CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="556260" y="68427600"/>
+          <a:ext cx="5097780" cy="13053060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46A4A7F-C59E-4FBC-94B6-1E794134B0C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="655320" y="81473040"/>
+          <a:ext cx="4823460" cy="11864340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>627</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C16A253-68A6-483F-8C44-BD18C802D775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="91699080"/>
+          <a:ext cx="4823460" cy="13266420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>695</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>759</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C17B5A-E0CC-46FD-AA74-13CA3E4D12CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="601980" y="116448840"/>
+          <a:ext cx="4853940" cy="10767060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>829</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3E6FE9-9E8B-4780-ACEB-81542209E490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="693420" y="126781560"/>
+          <a:ext cx="4762500" cy="12077700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>829</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>897</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECEAF52-DA49-4B01-8622-F1191F3E5C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="655320" y="138897360"/>
+          <a:ext cx="4732020" cy="11437620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>967</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB58C359-0878-4486-9AE0-BAB7D362DB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1141"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="624840" y="148788120"/>
+          <a:ext cx="4732020" cy="13205460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>966</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1036</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DBF274-7966-483F-BF4E-F4C07BBDCC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="556260" y="161894520"/>
+          <a:ext cx="4853940" cy="11711940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>1034</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1105</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FC41B6-B7F0-4CA1-B14C-F859BE1D14B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="579120" y="173324520"/>
+          <a:ext cx="4792980" cy="11772900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1156</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C01346A-911E-49EA-B03E-F920E8AA2069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="624840" y="184945020"/>
+          <a:ext cx="4914900" cy="8694420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10912,7 +11975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98AEC3-2209-41C1-A823-9BDCBA797413}">
   <dimension ref="A2:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
@@ -10965,6 +12028,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
   <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7895A-CC09-4FD0-88ED-7290FA29EB0E}">
+  <dimension ref="A1:K326"/>
+  <sheetViews>
+    <sheetView topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K284" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K326" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E28A7CA0-5768-43F2-B949-12590D32EBC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11660,7 +12759,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -11803,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61B63-4280-4EAE-83A7-3E7E7CD27935}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="H46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC94" sqref="AC94"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420F6E-F639-488B-84B1-7FD85054CA4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84548D77-DEEF-4C2D-9CC9-552B236AF370}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="1404" windowWidth="16080" windowHeight="10764" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="Import" sheetId="10" r:id="rId9"/>
     <sheet name="pythonanywhere" sheetId="11" r:id="rId10"/>
     <sheet name="開始" sheetId="12" r:id="rId11"/>
+    <sheet name="権限" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>\django_app\urls.py</t>
     <phoneticPr fontId="1"/>
@@ -411,12 +413,66 @@
   <si>
     <t>https://mmtomitomimm.blogspot.com/2019/01/django-girls.html</t>
   </si>
+  <si>
+    <t>path('', include('index.urls'))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path('', views.index, name='index')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from django.shortcuts import render</t>
+  </si>
+  <si>
+    <t>from django.contrib.auth.decorators import login_required</t>
+  </si>
+  <si>
+    <t>from django.contrib.auth.models import User</t>
+  </si>
+  <si>
+    <t>import logging</t>
+  </si>
+  <si>
+    <t>@login_required(login_url='/admin/login/')</t>
+  </si>
+  <si>
+    <t>def index(request):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    test = User.objects.filter(username=request.user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    logging.debug("index user:" + str(request.user))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    logging.debug("index is_super:" + str(request.user.is_superuser))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    logging.debug("index test:" + str(test))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    logging.debug("index has_perm:" + str(request.user.has_perm("score.add_tblscore") ))</t>
+  </si>
+  <si>
+    <t>#   logging.debug("index has_perm:" + str(request.user.has_perm("auth.add_user") ))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    params = {'login_user': request.user,}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return render(request, "score/index.html", params)</t>
+  </si>
+  <si>
+    <t>views.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +530,28 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +718,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3086,6 +3173,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0FE9C4-223A-4BE2-AED4-72B2FD4B9AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="3352800"/>
+          <a:ext cx="5615940" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -11619,6 +11772,65 @@
         <a:xfrm>
           <a:off x="89648" y="13115365"/>
           <a:ext cx="4183380" cy="2948940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>28056</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>553836</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687EC31C-8B3C-4BE5-88E0-7EB32F15525E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25106" b="3466"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22583256" y="0"/>
+          <a:ext cx="6621780" cy="7467600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11939,7 +12151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
@@ -11975,7 +12187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98AEC3-2209-41C1-A823-9BDCBA797413}">
   <dimension ref="A2:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
@@ -12033,10 +12245,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7895A-CC09-4FD0-88ED-7290FA29EB0E}">
-  <dimension ref="A1:K326"/>
+  <dimension ref="A1:K386"/>
   <sheetViews>
     <sheetView topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J779" sqref="J779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12056,6 +12268,16 @@
         <v>62</v>
       </c>
     </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K371" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="386" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K386" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -12067,11 +12289,106 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D007F-C20F-4F1F-B048-215B685E1C5C}">
+  <dimension ref="A2:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
@@ -12144,7 +12461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
@@ -12201,8 +12518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:I57"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AF44" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12263,7 +12580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A764F36D-FECD-4D24-BA23-1EAC418B4F8B}">
   <dimension ref="A1:BV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -12694,10 +13011,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AC726E-FCB8-474A-BA1D-0D93E89E3869}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="AG38" sqref="AG38"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM55" sqref="AM55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12759,7 +13079,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -12839,8 +13159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE40" sqref="AE40"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12902,8 +13222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61B63-4280-4EAE-83A7-3E7E7CD27935}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView topLeftCell="AH13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/pythonメモ.xlsx
+++ b/doc/pythonメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84548D77-DEEF-4C2D-9CC9-552B236AF370}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27C204-48C3-4877-9AAF-8908DE4F5F41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="1404" windowWidth="16080" windowHeight="10764" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="1404" windowWidth="16080" windowHeight="10764" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1基本" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>\django_app\urls.py</t>
     <phoneticPr fontId="1"/>
@@ -467,12 +467,23 @@
     <t>views.py</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git pull origin &lt;ブランチ名&gt;</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +563,13 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -659,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,13 +1559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1599,13 +1620,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1666,13 +1687,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1727,13 +1748,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1794,13 +1815,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1864,13 +1885,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1931,13 +1952,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2001,13 +2022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2068,13 +2089,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12185,10 +12206,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98AEC3-2209-41C1-A823-9BDCBA797413}">
-  <dimension ref="A2:B39"/>
+  <dimension ref="A2:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12229,6 +12250,16 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12293,8 +12324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824D007F-C20F-4F1F-B048-215B685E1C5C}">
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -13222,7 +13253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61B63-4280-4EAE-83A7-3E7E7CD27935}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="AH13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="AH55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
